--- a/ementas_todas_cand-2-bd2.xlsx
+++ b/ementas_todas_cand-2-bd2.xlsx
@@ -691,6 +691,11 @@
       <c r="I7">
         <v>0.917386010871318</v>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -973,6 +978,11 @@
       </c>
       <c r="I13">
         <v>0.7474770238464983</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1497,6 +1507,11 @@
       <c r="I24">
         <v>0.8737356092942274</v>
       </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1684,6 +1699,11 @@
       <c r="I28">
         <v>0.6473386311822193</v>
       </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1919,6 +1939,11 @@
       </c>
       <c r="I33">
         <v>0.8936649139415322</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -2640,6 +2665,11 @@
       <c r="I48">
         <v>0.8959643771482416</v>
       </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3113,6 +3143,11 @@
       <c r="I58">
         <v>0.5842236940125681</v>
       </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3206,6 +3241,11 @@
       <c r="I60">
         <v>0.8732311952619993</v>
       </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3344,6 +3384,11 @@
       </c>
       <c r="I63">
         <v>0.5818941706603313</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -3442,6 +3487,11 @@
       <c r="I65">
         <v>0.8602210589776917</v>
       </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3624,6 +3674,11 @@
       <c r="I69">
         <v>0.807489248689117</v>
       </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3806,6 +3861,11 @@
       <c r="I73">
         <v>0.9081512262789291</v>
       </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3898,6 +3958,11 @@
       <c r="I75">
         <v>0.5192430889190153</v>
       </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4365,6 +4430,11 @@
       <c r="I85">
         <v>0.9214693029088714</v>
       </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4456,6 +4526,11 @@
       <c r="I87">
         <v>0.7402827275719748</v>
       </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4595,6 +4670,11 @@
       <c r="I90">
         <v>0.9052331808851491</v>
       </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4734,6 +4814,11 @@
       <c r="I93">
         <v>0.9139314559720501</v>
       </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4921,6 +5006,11 @@
       <c r="I97">
         <v>0.825150094481843</v>
       </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5146,6 +5236,11 @@
       </c>
       <c r="I102">
         <v>0.5207728325205263</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="103">
@@ -5288,6 +5383,11 @@
       <c r="I105">
         <v>0.8768686574881344</v>
       </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5427,6 +5527,11 @@
       <c r="I108">
         <v>0.8834702781259978</v>
       </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5754,6 +5859,11 @@
       <c r="I115">
         <v>0.7463920228841454</v>
       </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6327,6 +6437,11 @@
       <c r="I127">
         <v>0.8980152014281012</v>
       </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6611,6 +6726,11 @@
       <c r="I133">
         <v>0.7372454254324241</v>
       </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6702,6 +6822,11 @@
       <c r="I135">
         <v>0.8908646965525784</v>
       </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6841,6 +6966,11 @@
       <c r="I138">
         <v>0.9046994743840456</v>
       </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7028,6 +7158,11 @@
       <c r="I142">
         <v>0.7609459666091509</v>
       </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7162,6 +7297,11 @@
       <c r="I145">
         <v>0.9180950238213003</v>
       </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7205,6 +7345,11 @@
       <c r="I146">
         <v>0.50862682923897</v>
       </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7675,6 +7820,11 @@
       </c>
       <c r="I156">
         <v>0.8600051230546024</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="157">
@@ -7952,6 +8102,11 @@
       <c r="I162">
         <v>0.8857529401253851</v>
       </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8236,6 +8391,11 @@
       <c r="I168">
         <v>0.9057832272000631</v>
       </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8466,6 +8626,11 @@
       <c r="I173">
         <v>0.4506200486743077</v>
       </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9360,6 +9525,11 @@
       <c r="I192">
         <v>0.7307211688075909</v>
       </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -9691,6 +9861,11 @@
       <c r="I199">
         <v>0.9120045983217716</v>
       </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -9920,6 +10095,11 @@
       </c>
       <c r="I204">
         <v>0.7878286772285614</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="205">
@@ -10062,6 +10242,11 @@
       <c r="I207">
         <v>0.8785925917997737</v>
       </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -10202,6 +10387,11 @@
       <c r="I210">
         <v>0.8910060160840235</v>
       </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -10293,6 +10483,11 @@
       <c r="I212">
         <v>0.8692927498964703</v>
       </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -10620,6 +10815,11 @@
       <c r="I219">
         <v>0.9069293974315856</v>
       </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -10759,6 +10959,11 @@
       <c r="I222">
         <v>0.8926195470396412</v>
       </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -10945,6 +11150,11 @@
       </c>
       <c r="I226">
         <v>0.6422382460438819</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="227">
@@ -11664,6 +11874,11 @@
       <c r="I241">
         <v>0.6994482878541695</v>
       </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -11851,6 +12066,11 @@
       </c>
       <c r="I245">
         <v>0.8042719652555996</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="246">
@@ -13278,6 +13498,11 @@
       <c r="I275">
         <v>0.9217258755538315</v>
       </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -13417,6 +13642,11 @@
       <c r="I278">
         <v>0.8644765132106432</v>
       </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -13555,6 +13785,11 @@
       </c>
       <c r="I281">
         <v>0.9125534997802107</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="282">
@@ -13701,6 +13936,11 @@
       <c r="I284">
         <v>0.8661294287035748</v>
       </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -13929,6 +14169,11 @@
       <c r="I289">
         <v>0.8960712684146315</v>
       </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -14438,6 +14683,11 @@
       <c r="I300">
         <v>0.9106664411692912</v>
       </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -14529,6 +14779,11 @@
       <c r="I302">
         <v>0.4725830693425487</v>
       </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -14710,6 +14965,11 @@
       </c>
       <c r="I306">
         <v>0.7861571147646461</v>
+      </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="307">
@@ -14895,6 +15155,11 @@
       <c r="I310">
         <v>0.8757909218061408</v>
       </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -15131,6 +15396,11 @@
       <c r="I315">
         <v>0.766646601982366</v>
       </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -15548,6 +15818,11 @@
       <c r="I324">
         <v>0.9009968600875651</v>
       </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -15687,6 +15962,11 @@
       <c r="I327">
         <v>0.8571930099792846</v>
       </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -15826,6 +16106,11 @@
       <c r="I330">
         <v>0.7245091802118014</v>
       </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -16250,6 +16535,11 @@
       <c r="I339">
         <v>0.4821732057965278</v>
       </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -16528,6 +16818,11 @@
       <c r="I345">
         <v>0.8943892151761927</v>
       </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -16999,6 +17294,11 @@
       <c r="I355">
         <v>0.902571441844816</v>
       </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -17091,6 +17391,11 @@
       <c r="I357">
         <v>0.9018356858085836</v>
       </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -17230,6 +17535,11 @@
       <c r="I360">
         <v>0.9041072263154555</v>
       </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -17321,6 +17631,11 @@
       <c r="I362">
         <v>0.8164821176338422</v>
       </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -17507,6 +17822,11 @@
       </c>
       <c r="I366">
         <v>0.2759206802948556</v>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="367">
@@ -17649,6 +17969,11 @@
       <c r="I369">
         <v>0.5380684208376763</v>
       </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -17836,6 +18161,11 @@
       <c r="I373">
         <v>0.5681144874807718</v>
       </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -18018,6 +18348,11 @@
       <c r="I377">
         <v>0.6862453529415403</v>
       </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -18248,6 +18583,11 @@
       <c r="I382">
         <v>0.4752651852687789</v>
       </c>
+      <c r="J382" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -18291,6 +18631,11 @@
       <c r="I383">
         <v>0.5976800147578591</v>
       </c>
+      <c r="J383" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -18473,6 +18818,11 @@
       <c r="I387">
         <v>0.5424022630600839</v>
       </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -18564,6 +18914,11 @@
       <c r="I389">
         <v>0.9009517071866033</v>
       </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -18795,6 +19150,11 @@
       <c r="I394">
         <v>0.8243738504813289</v>
       </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -19078,6 +19438,11 @@
       <c r="I400">
         <v>0.9083638627970783</v>
       </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -19307,6 +19672,11 @@
       </c>
       <c r="I405">
         <v>0.8796930020640188</v>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="406">
@@ -19834,6 +20204,11 @@
       <c r="I416">
         <v>0.7320160792409071</v>
       </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -20016,6 +20391,11 @@
       <c r="I420">
         <v>0.9107423008387636</v>
       </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -20342,6 +20722,11 @@
       <c r="I427">
         <v>0.9129499286216987</v>
       </c>
+      <c r="J427" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -20481,6 +20866,11 @@
       <c r="I430">
         <v>0.7004472965624372</v>
       </c>
+      <c r="J430" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -20572,6 +20962,11 @@
       <c r="I432">
         <v>0.5230494536641916</v>
       </c>
+      <c r="J432" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -20706,6 +21101,11 @@
       <c r="I435">
         <v>0.8888612856774442</v>
       </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -20989,6 +21389,11 @@
       <c r="I441">
         <v>0.8698631714173549</v>
       </c>
+      <c r="J441" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -21459,6 +21864,11 @@
       <c r="I451">
         <v>0.9091096641267681</v>
       </c>
+      <c r="J451" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -21598,6 +22008,11 @@
       <c r="I454">
         <v>0.9140665302845614</v>
       </c>
+      <c r="J454" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -21780,6 +22195,11 @@
       <c r="I458">
         <v>0.9101980749688391</v>
       </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -22064,6 +22484,11 @@
       <c r="I464">
         <v>0.9189366836859356</v>
       </c>
+      <c r="J464" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -22540,6 +22965,11 @@
       <c r="I474">
         <v>0.9125316850822768</v>
       </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -22817,6 +23247,11 @@
       </c>
       <c r="I480">
         <v>0.8617571602491714</v>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="481">
@@ -23242,6 +23677,11 @@
       <c r="I489">
         <v>0.8722537347206015</v>
       </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -23713,6 +24153,11 @@
       <c r="I499">
         <v>0.9194626536149493</v>
       </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -24226,6 +24671,11 @@
       </c>
       <c r="I510">
         <v>0.7246227994824798</v>
+      </c>
+      <c r="J510" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="511">
@@ -24700,6 +25150,11 @@
       <c r="I520">
         <v>0.7305874650304028</v>
       </c>
+      <c r="J520" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -24935,6 +25390,11 @@
       <c r="I525">
         <v>0.8881045029786623</v>
       </c>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -25123,6 +25583,11 @@
       <c r="I529">
         <v>0.9184132605270208</v>
       </c>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -25636,6 +26101,11 @@
       <c r="I540">
         <v>0.9097210040910627</v>
       </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -25727,6 +26197,11 @@
       <c r="I542">
         <v>0.5261279828218104</v>
       </c>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -25908,6 +26383,11 @@
       </c>
       <c r="I546">
         <v>0.8172588289309396</v>
+      </c>
+      <c r="J546" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="547">
@@ -26192,6 +26672,11 @@
       <c r="I552">
         <v>0.9185695020892719</v>
       </c>
+      <c r="J552" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -26608,6 +27093,11 @@
       </c>
       <c r="I561">
         <v>0.5540251670246431</v>
+      </c>
+      <c r="J561" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="562">
@@ -27082,6 +27572,11 @@
       <c r="I571">
         <v>0.8866384217839788</v>
       </c>
+      <c r="J571" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -27318,6 +27813,11 @@
       <c r="I576">
         <v>0.8902568100482509</v>
       </c>
+      <c r="J576" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -27456,6 +27956,11 @@
       </c>
       <c r="I579">
         <v>0.8694896677383529</v>
+      </c>
+      <c r="J579" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="580">
@@ -27646,6 +28151,11 @@
       <c r="I583">
         <v>0.4461433672597594</v>
       </c>
+      <c r="J583" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -27881,6 +28391,11 @@
       <c r="I588">
         <v>0.9020483999103224</v>
       </c>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -28730,6 +29245,11 @@
       <c r="I606">
         <v>0.8757718491036971</v>
       </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -28869,6 +29389,11 @@
       <c r="I609">
         <v>0.8974328493543191</v>
       </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -29248,6 +29773,11 @@
       <c r="I617">
         <v>0.9122973111081071</v>
       </c>
+      <c r="J617" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -29865,6 +30395,11 @@
       <c r="I630">
         <v>0.9034321374140905</v>
       </c>
+      <c r="J630" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -30196,6 +30731,11 @@
       <c r="I637">
         <v>0.9118479197717079</v>
       </c>
+      <c r="J637" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -30286,6 +30826,11 @@
       </c>
       <c r="I639">
         <v>0.8396756254124481</v>
+      </c>
+      <c r="J639" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="640">
@@ -30860,6 +31405,11 @@
       </c>
       <c r="I651">
         <v>0.8775005572198714</v>
+      </c>
+      <c r="J651" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="652">
@@ -31005,6 +31555,11 @@
       <c r="I654">
         <v>0.8564125048711397</v>
       </c>
+      <c r="J654" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -31289,6 +31844,11 @@
       <c r="I660">
         <v>0.4596158171878217</v>
       </c>
+      <c r="J660" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -31428,6 +31988,11 @@
       </c>
       <c r="I663">
         <v>0.9118550560077301</v>
+      </c>
+      <c r="J663" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="664">
@@ -31618,6 +32183,11 @@
       <c r="I667">
         <v>0.7433293285034694</v>
       </c>
+      <c r="J667" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
@@ -31854,6 +32424,11 @@
       <c r="I672">
         <v>0.8943539423739639</v>
       </c>
+      <c r="J672" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
@@ -32186,6 +32761,11 @@
       <c r="I679">
         <v>0.4330829246236971</v>
       </c>
+      <c r="J679" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
@@ -32325,6 +32905,11 @@
       <c r="I682">
         <v>0.3085129891449026</v>
       </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
@@ -32464,6 +33049,11 @@
       <c r="I685">
         <v>0.8658353823348364</v>
       </c>
+      <c r="J685" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
@@ -33123,6 +33713,11 @@
       <c r="I699">
         <v>0.8919673845855823</v>
       </c>
+      <c r="J699" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
@@ -33310,6 +33905,11 @@
       <c r="I703">
         <v>0.8972148340858799</v>
       </c>
+      <c r="J703" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
@@ -33544,6 +34144,11 @@
       </c>
       <c r="I708">
         <v>0.8902125793461934</v>
+      </c>
+      <c r="J708" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="709">
@@ -33825,6 +34430,11 @@
       <c r="I714">
         <v>0.876084279670352</v>
       </c>
+      <c r="J714" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
@@ -33916,6 +34526,11 @@
       <c r="I716">
         <v>0.9072569858571849</v>
       </c>
+      <c r="J716" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
@@ -34152,6 +34767,11 @@
       <c r="I721">
         <v>0.9276583731990328</v>
       </c>
+      <c r="J721" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
@@ -34617,6 +35237,11 @@
       </c>
       <c r="I731">
         <v>0.7112775616124055</v>
+      </c>
+      <c r="J731" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="732">
@@ -35523,6 +36148,11 @@
       <c r="I750">
         <v>0.9269362863319587</v>
       </c>
+      <c r="J750" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
@@ -35801,6 +36431,11 @@
       <c r="I756">
         <v>0.9167351881566552</v>
       </c>
+      <c r="J756" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
@@ -36690,6 +37325,11 @@
       <c r="I775">
         <v>0.7474780313973075</v>
       </c>
+      <c r="J775" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
@@ -36919,6 +37559,11 @@
       </c>
       <c r="I780">
         <v>0.8889281910570264</v>
+      </c>
+      <c r="J780" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="781">
@@ -37344,6 +37989,11 @@
       <c r="I789">
         <v>0.8765619160585932</v>
       </c>
+      <c r="J789" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
@@ -37628,6 +38278,11 @@
       <c r="I795">
         <v>0.9062041024860659</v>
       </c>
+      <c r="J795" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
@@ -37907,6 +38562,11 @@
       </c>
       <c r="I801">
         <v>0.9021016548117141</v>
+      </c>
+      <c r="J801" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="802">
@@ -38476,6 +39136,11 @@
       <c r="I813">
         <v>0.6006317148085896</v>
       </c>
+      <c r="J813" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
@@ -39050,6 +39715,11 @@
       <c r="I825">
         <v>0.8995039219943174</v>
       </c>
+      <c r="J825" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
@@ -39190,6 +39860,11 @@
       <c r="I828">
         <v>0.5285865096058822</v>
       </c>
+      <c r="J828" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
@@ -39281,6 +39956,11 @@
       <c r="I830">
         <v>0.8222939558176176</v>
       </c>
+      <c r="J830" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
@@ -39516,6 +40196,11 @@
       <c r="I835">
         <v>0.7337152004244863</v>
       </c>
+      <c r="J835" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
@@ -39655,6 +40340,11 @@
       <c r="I838">
         <v>0.9088027734474347</v>
       </c>
+      <c r="J838" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
@@ -39932,6 +40622,11 @@
       </c>
       <c r="I844">
         <v>0.9235848065355896</v>
+      </c>
+      <c r="J844" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="845">
@@ -40450,6 +41145,11 @@
       <c r="I855">
         <v>0.8690045437778744</v>
       </c>
+      <c r="J855" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
@@ -40541,6 +41241,11 @@
       <c r="I857">
         <v>0.8934450604910747</v>
       </c>
+      <c r="J857" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
@@ -40728,6 +41433,11 @@
       <c r="I861">
         <v>0.8692719970203433</v>
       </c>
+      <c r="J861" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
@@ -40819,6 +41529,11 @@
       <c r="I863">
         <v>0.6603817640149192</v>
       </c>
+      <c r="J863" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
@@ -41198,6 +41913,11 @@
       <c r="I871">
         <v>0.3900539746954601</v>
       </c>
+      <c r="J871" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
@@ -41289,6 +42009,11 @@
       <c r="I873">
         <v>0.614723446787121</v>
       </c>
+      <c r="J873" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
@@ -41996,6 +42721,11 @@
       <c r="I888">
         <v>0.9103010436595677</v>
       </c>
+      <c r="J888" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
@@ -42087,6 +42817,11 @@
       <c r="I890">
         <v>0.7519706889645839</v>
       </c>
+      <c r="J890" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
@@ -42558,6 +43293,11 @@
       </c>
       <c r="I900">
         <v>0.6356617790376907</v>
+      </c>
+      <c r="J900" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="901">
@@ -43266,6 +44006,11 @@
       <c r="I915">
         <v>0.8869564334332615</v>
       </c>
+      <c r="J915" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
@@ -43690,6 +44435,11 @@
       <c r="I924">
         <v>0.9114658808645877</v>
       </c>
+      <c r="J924" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
@@ -43829,6 +44579,11 @@
       </c>
       <c r="I927">
         <v>0.9014941226344667</v>
+      </c>
+      <c r="J927" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="928">
@@ -43966,6 +44721,11 @@
       <c r="I930">
         <v>0.8703155319187371</v>
       </c>
+      <c r="J930" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
@@ -44292,6 +45052,11 @@
       <c r="I937">
         <v>0.9139942720760793</v>
       </c>
+      <c r="J937" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
@@ -44478,6 +45243,11 @@
       </c>
       <c r="I941">
         <v>0.8998112557561764</v>
+      </c>
+      <c r="J941" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="942">
@@ -44951,6 +45721,11 @@
       <c r="I951">
         <v>0.5599852073359847</v>
       </c>
+      <c r="J951" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
@@ -45283,6 +46058,11 @@
       <c r="I958">
         <v>0.670330317255415</v>
       </c>
+      <c r="J958" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
@@ -45326,6 +46106,11 @@
       <c r="I959">
         <v>0.415782203400459</v>
       </c>
+      <c r="J959" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
@@ -45508,6 +46293,11 @@
       <c r="I963">
         <v>0.6376887663112369</v>
       </c>
+      <c r="J963" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
@@ -45835,6 +46625,11 @@
       <c r="I970">
         <v>0.9100093745504986</v>
       </c>
+      <c r="J970" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
@@ -45926,6 +46721,11 @@
       <c r="I972">
         <v>0.5720626495412608</v>
       </c>
+      <c r="J972" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
@@ -46252,6 +47052,11 @@
       <c r="I979">
         <v>0.8919707412662727</v>
       </c>
+      <c r="J979" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="980">
       <c r="A980" t="inlineStr">
@@ -46970,6 +47775,11 @@
       <c r="I994">
         <v>0.6997662914695453</v>
       </c>
+      <c r="J994" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
@@ -47392,6 +48202,11 @@
       <c r="I1003">
         <v>0.889631847509589</v>
       </c>
+      <c r="J1003" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1004">
       <c r="A1004" t="inlineStr">
@@ -47434,6 +48249,11 @@
       </c>
       <c r="I1004">
         <v>0.9096084993086386</v>
+      </c>
+      <c r="J1004" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="1005">
@@ -47859,6 +48679,11 @@
       </c>
       <c r="I1013">
         <v>0.8736075182073479</v>
+      </c>
+      <c r="J1013" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="1014">
@@ -48198,6 +49023,11 @@
       <c r="I1020">
         <v>0.8827394780505406</v>
       </c>
+      <c r="J1020" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1021">
       <c r="A1021" t="inlineStr">
@@ -49050,6 +49880,11 @@
       <c r="I1038">
         <v>0.8867327547757016</v>
       </c>
+      <c r="J1038" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1039">
       <c r="A1039" t="inlineStr">
@@ -49189,6 +50024,11 @@
       <c r="I1041">
         <v>0.3189518072240475</v>
       </c>
+      <c r="J1041" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1042">
       <c r="A1042" t="inlineStr">
@@ -49424,6 +50264,11 @@
       <c r="I1046">
         <v>0.8101364828952442</v>
       </c>
+      <c r="J1046" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1047">
       <c r="A1047" t="inlineStr">
@@ -49803,6 +50648,11 @@
       <c r="I1054">
         <v>0.6534538855390046</v>
       </c>
+      <c r="J1054" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1055">
       <c r="A1055" t="inlineStr">
@@ -49889,6 +50739,11 @@
       <c r="I1056">
         <v>0.8791090280262505</v>
       </c>
+      <c r="J1056" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1057">
       <c r="A1057" t="inlineStr">
@@ -50166,6 +51021,11 @@
       </c>
       <c r="I1062">
         <v>0.8927546876564957</v>
+      </c>
+      <c r="J1062" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="1063">
@@ -50308,6 +51168,11 @@
       <c r="I1065">
         <v>0.8754924628362265</v>
       </c>
+      <c r="J1065" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1066">
       <c r="A1066" t="inlineStr">
@@ -50640,6 +51505,11 @@
       <c r="I1072">
         <v>0.2683577694324805</v>
       </c>
+      <c r="J1072" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1073">
       <c r="A1073" t="inlineStr">
@@ -50683,6 +51553,11 @@
       <c r="I1073">
         <v>0.9173004261367786</v>
       </c>
+      <c r="J1073" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1074">
       <c r="A1074" t="inlineStr">
@@ -51153,6 +52028,11 @@
       <c r="I1083">
         <v>0.9160381469900075</v>
       </c>
+      <c r="J1083" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1084">
       <c r="A1084" t="inlineStr">
@@ -51291,6 +52171,11 @@
       </c>
       <c r="I1086">
         <v>0.882191138831616</v>
+      </c>
+      <c r="J1086" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="1087">
@@ -51673,6 +52558,11 @@
       <c r="I1094">
         <v>0.8673649884638163</v>
       </c>
+      <c r="J1094" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1095">
       <c r="A1095" t="inlineStr">
@@ -51908,6 +52798,11 @@
       <c r="I1099">
         <v>0.8983376047056603</v>
       </c>
+      <c r="J1099" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1100">
       <c r="A1100" t="inlineStr">
@@ -52191,6 +53086,11 @@
       <c r="I1105">
         <v>0.920864135335612</v>
       </c>
+      <c r="J1105" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1106">
       <c r="A1106" t="inlineStr">
@@ -52282,6 +53182,11 @@
       <c r="I1107">
         <v>0.9202652217136</v>
       </c>
+      <c r="J1107" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1108">
       <c r="A1108" t="inlineStr">
@@ -52520,6 +53425,11 @@
       <c r="I1112">
         <v>0.91207018552596</v>
       </c>
+      <c r="J1112" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1113">
       <c r="A1113" t="inlineStr">
@@ -52803,6 +53713,11 @@
       <c r="I1118">
         <v>0.7397112046748602</v>
       </c>
+      <c r="J1118" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1119">
       <c r="A1119" t="inlineStr">
@@ -53034,6 +53949,11 @@
       <c r="I1123">
         <v>0.3999097837751633</v>
       </c>
+      <c r="J1123" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1124">
       <c r="A1124" t="inlineStr">
@@ -53124,6 +54044,11 @@
       </c>
       <c r="I1125">
         <v>0.9173583050096438</v>
+      </c>
+      <c r="J1125" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="1126">
@@ -53268,6 +54193,11 @@
       <c r="I1128">
         <v>0.8592364439220207</v>
       </c>
+      <c r="J1128" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
@@ -53696,6 +54626,11 @@
       <c r="I1137">
         <v>0.8328850897188904</v>
       </c>
+      <c r="J1137" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
@@ -53981,6 +54916,11 @@
       <c r="I1143">
         <v>0.7433915938911894</v>
       </c>
+      <c r="J1143" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
@@ -54168,6 +55108,11 @@
       <c r="I1147">
         <v>0.9098914436661456</v>
       </c>
+      <c r="J1147" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
@@ -54306,6 +55251,11 @@
       </c>
       <c r="I1150">
         <v>0.8718725167920012</v>
+      </c>
+      <c r="J1150" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="1151">
@@ -54400,6 +55350,11 @@
       <c r="I1152">
         <v>0.8758310106736503</v>
       </c>
+      <c r="J1152" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1153">
       <c r="A1153" t="inlineStr">
@@ -54684,6 +55639,11 @@
       <c r="I1158">
         <v>0.9120749216086015</v>
       </c>
+      <c r="J1158" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
@@ -54823,6 +55783,11 @@
       <c r="I1161">
         <v>0.8870431984780666</v>
       </c>
+      <c r="J1161" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1162">
       <c r="A1162" t="inlineStr">
@@ -55010,6 +55975,11 @@
       <c r="I1165">
         <v>0.9139364158604784</v>
       </c>
+      <c r="J1165" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
@@ -55287,6 +56257,11 @@
       </c>
       <c r="I1171">
         <v>0.8808287177194906</v>
+      </c>
+      <c r="J1171" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="1172">
@@ -55382,6 +56357,11 @@
       <c r="I1173">
         <v>0.87984684297191</v>
       </c>
+      <c r="J1173" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" t="inlineStr">
@@ -55473,6 +56453,11 @@
       <c r="I1175">
         <v>0.8667426253446681</v>
       </c>
+      <c r="J1175" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
@@ -55655,6 +56640,11 @@
       <c r="I1179">
         <v>0.9123442484946184</v>
       </c>
+      <c r="J1179" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1180">
       <c r="A1180" t="inlineStr">
@@ -55842,6 +56832,11 @@
       <c r="I1183">
         <v>0.9141012586465852</v>
       </c>
+      <c r="J1183" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
@@ -56692,6 +57687,11 @@
       <c r="I1201">
         <v>0.5339224580320154</v>
       </c>
+      <c r="J1201" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
@@ -56826,6 +57826,11 @@
       <c r="I1204">
         <v>0.9025640918797849</v>
       </c>
+      <c r="J1204" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
@@ -57248,6 +58253,11 @@
       <c r="I1213">
         <v>0.9013992925987301</v>
       </c>
+      <c r="J1213" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1214">
       <c r="A1214" t="inlineStr">
@@ -57479,6 +58489,11 @@
       <c r="I1218">
         <v>0.884473123030469</v>
       </c>
+      <c r="J1218" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1219">
       <c r="A1219" t="inlineStr">
@@ -57943,6 +58958,11 @@
       </c>
       <c r="I1228">
         <v>0.7020578997898608</v>
+      </c>
+      <c r="J1228" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="1229">
@@ -58132,6 +59152,11 @@
       <c r="I1232">
         <v>0.8784861188874999</v>
       </c>
+      <c r="J1232" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
@@ -58322,6 +59347,11 @@
       <c r="I1236">
         <v>0.8698100314541816</v>
       </c>
+      <c r="J1236" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1237">
       <c r="A1237" t="inlineStr">
@@ -58608,6 +59638,11 @@
       <c r="I1242">
         <v>0.875059280336172</v>
       </c>
+      <c r="J1242" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1243">
       <c r="A1243" t="inlineStr">
@@ -58893,6 +59928,11 @@
       <c r="I1248">
         <v>0.8629404084885901</v>
       </c>
+      <c r="J1248" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1249">
       <c r="A1249" t="inlineStr">
@@ -59069,6 +60109,11 @@
       </c>
       <c r="I1252">
         <v>0.744731084087294</v>
+      </c>
+      <c r="J1252" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="1253">
@@ -60215,6 +61260,11 @@
       <c r="I1276">
         <v>0.5743496146516087</v>
       </c>
+      <c r="J1276" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1277">
       <c r="A1277" t="inlineStr">
@@ -60354,6 +61404,11 @@
       <c r="I1279">
         <v>0.9147835946285314</v>
       </c>
+      <c r="J1279" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1280">
       <c r="A1280" t="inlineStr">
@@ -60633,6 +61688,11 @@
       <c r="I1285">
         <v>0.9176816468090622</v>
       </c>
+      <c r="J1285" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1286">
       <c r="A1286" t="inlineStr">
@@ -60724,6 +61784,11 @@
       <c r="I1287">
         <v>0.7258123336313382</v>
       </c>
+      <c r="J1287" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1288">
       <c r="A1288" t="inlineStr">
@@ -61569,6 +62634,11 @@
       <c r="I1305">
         <v>0.8695176099112116</v>
       </c>
+      <c r="J1305" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1306">
       <c r="A1306" t="inlineStr">
@@ -61707,6 +62777,11 @@
       </c>
       <c r="I1308">
         <v>0.7542092434607897</v>
+      </c>
+      <c r="J1308" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="1309">
@@ -61849,6 +62924,11 @@
       <c r="I1311">
         <v>0.8517650200337115</v>
       </c>
+      <c r="J1311" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1312">
       <c r="A1312" t="inlineStr">
@@ -61987,6 +63067,11 @@
       </c>
       <c r="I1314">
         <v>0.8539145999488332</v>
+      </c>
+      <c r="J1314" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="1315">
@@ -62172,6 +63257,11 @@
       <c r="I1318">
         <v>0.851091415344253</v>
       </c>
+      <c r="J1318" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1319">
       <c r="A1319" t="inlineStr">
@@ -62455,6 +63545,11 @@
       <c r="I1324">
         <v>0.4674894627347324</v>
       </c>
+      <c r="J1324" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1325">
       <c r="A1325" t="inlineStr">
@@ -62974,6 +64069,11 @@
       <c r="I1335">
         <v>0.9123835813488334</v>
       </c>
+      <c r="J1335" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" t="inlineStr">
@@ -63113,6 +64213,11 @@
       <c r="I1338">
         <v>0.7731265429856635</v>
       </c>
+      <c r="J1338" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1339">
       <c r="A1339" t="inlineStr">
@@ -63540,6 +64645,11 @@
       </c>
       <c r="I1347">
         <v>0.8879113296491776</v>
+      </c>
+      <c r="J1347" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="1348">
@@ -63827,6 +64937,11 @@
       <c r="I1353">
         <v>0.8798612551417747</v>
       </c>
+      <c r="J1353" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1354">
       <c r="A1354" t="inlineStr">
@@ -64008,6 +65123,11 @@
       </c>
       <c r="I1357">
         <v>0.6075945470663185</v>
+      </c>
+      <c r="J1357" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="1358">
@@ -64385,6 +65505,11 @@
       <c r="I1365">
         <v>0.8710915514159797</v>
       </c>
+      <c r="J1365" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1366">
       <c r="A1366" t="inlineStr">
@@ -64476,6 +65601,11 @@
       <c r="I1367">
         <v>0.5811667987695922</v>
       </c>
+      <c r="J1367" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1368">
       <c r="A1368" t="inlineStr">
@@ -64807,6 +65937,11 @@
       <c r="I1374">
         <v>0.8559864096327647</v>
       </c>
+      <c r="J1374" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1375">
       <c r="A1375" t="inlineStr">
@@ -65042,6 +66177,11 @@
       <c r="I1379">
         <v>0.5887108662776307</v>
       </c>
+      <c r="J1379" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1380">
       <c r="A1380" t="inlineStr">
@@ -65272,6 +66412,11 @@
       <c r="I1384">
         <v>0.3729993246421124</v>
       </c>
+      <c r="J1384" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1385">
       <c r="A1385" t="inlineStr">
@@ -65406,6 +66551,11 @@
       <c r="I1387">
         <v>0.6725728960939286</v>
       </c>
+      <c r="J1387" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1388">
       <c r="A1388" t="inlineStr">
@@ -65641,6 +66791,11 @@
       <c r="I1392">
         <v>0.8879138845609591</v>
       </c>
+      <c r="J1392" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1393">
       <c r="A1393" t="inlineStr">
@@ -65780,6 +66935,11 @@
       <c r="I1395">
         <v>0.5296473742616576</v>
       </c>
+      <c r="J1395" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1396">
       <c r="A1396" t="inlineStr">
@@ -65968,6 +67128,11 @@
       <c r="I1399">
         <v>0.9165705652394339</v>
       </c>
+      <c r="J1399" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1400">
       <c r="A1400" t="inlineStr">
@@ -66011,6 +67176,11 @@
       <c r="I1400">
         <v>0.9115984866929734</v>
       </c>
+      <c r="J1400" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1401">
       <c r="A1401" t="inlineStr">
@@ -66149,6 +67319,11 @@
       </c>
       <c r="I1403">
         <v>0.9069871149616905</v>
+      </c>
+      <c r="J1403" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="1404">
@@ -66473,6 +67648,11 @@
       <c r="I1410">
         <v>0.8778856816969368</v>
       </c>
+      <c r="J1410" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1411">
       <c r="A1411" t="inlineStr">
@@ -66611,6 +67791,11 @@
       </c>
       <c r="I1413">
         <v>0.9014305196142285</v>
+      </c>
+      <c r="J1413" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="1414">
@@ -66753,6 +67938,11 @@
       <c r="I1416">
         <v>0.875605108865995</v>
       </c>
+      <c r="J1416" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
+      </c>
     </row>
     <row r="1417">
       <c r="A1417" t="inlineStr">
@@ -66940,6 +68130,11 @@
       </c>
       <c r="I1420">
         <v>0.52166520592523</v>
+      </c>
+      <c r="J1420" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="1421">
@@ -67129,6 +68324,11 @@
       </c>
       <c r="I1424">
         <v>0.8761131973960726</v>
+      </c>
+      <c r="J1424" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda a gestão da Pandemia, a regulação de atividades de linha de frente ou outras atividades da sociedade brasileira que foram afetadas pela COVID-19, como a assistência social em decorrência ao período da crise sanitária e afins.</t>
+        </is>
       </c>
     </row>
     <row r="1425">

--- a/ementas_todas_cand-2-bd2.xlsx
+++ b/ementas_todas_cand-2-bd2.xlsx
@@ -5054,6 +5054,11 @@
       <c r="I98">
         <v>0.9029676754660413</v>
       </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -14126,6 +14131,11 @@
       <c r="I288">
         <v>0.9084218142982308</v>
       </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -14361,6 +14371,11 @@
       <c r="I293">
         <v>0.9070405225086783</v>
       </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -14639,6 +14654,11 @@
       </c>
       <c r="I299">
         <v>0.9037682231353319</v>
+      </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
       </c>
     </row>
     <row r="300">
@@ -15631,6 +15651,11 @@
       <c r="I320">
         <v>0.8852433190560212</v>
       </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -19533,6 +19558,11 @@
       </c>
       <c r="I402">
         <v>0.9062498651669287</v>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
       </c>
     </row>
     <row r="403">
@@ -22056,6 +22086,11 @@
       <c r="I455">
         <v>0.220428259574508</v>
       </c>
+      <c r="J455" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -23535,6 +23570,11 @@
       </c>
       <c r="I486">
         <v>0.8388712693343903</v>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
       </c>
     </row>
     <row r="487">
@@ -25961,6 +26001,11 @@
       </c>
       <c r="I537">
         <v>0.8400060786757416</v>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
       </c>
     </row>
     <row r="538">
@@ -26533,6 +26578,11 @@
       <c r="I549">
         <v>0.9259606875397964</v>
       </c>
+      <c r="J549" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -27333,6 +27383,11 @@
       </c>
       <c r="I566">
         <v>0.9301168276446893</v>
+      </c>
+      <c r="J566" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
       </c>
     </row>
     <row r="567">
@@ -33193,6 +33248,11 @@
       <c r="I688">
         <v>0.8932542721168116</v>
       </c>
+      <c r="J688" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
@@ -35007,6 +35067,11 @@
       <c r="I726">
         <v>0.8492095083042295</v>
       </c>
+      <c r="J726" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
@@ -36624,6 +36689,11 @@
       <c r="I760">
         <v>0.9046542481341268</v>
       </c>
+      <c r="J760" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
@@ -37420,6 +37490,11 @@
       </c>
       <c r="I777">
         <v>0.387501932786976</v>
+      </c>
+      <c r="J777" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
       </c>
     </row>
     <row r="778">
@@ -40580,6 +40655,11 @@
       <c r="I843">
         <v>0.9160472347490257</v>
       </c>
+      <c r="J843" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
@@ -41052,6 +41132,11 @@
       <c r="I853">
         <v>0.8990643956435727</v>
       </c>
+      <c r="J853" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
@@ -42865,6 +42950,11 @@
       <c r="I891">
         <v>0.8444331402791633</v>
       </c>
+      <c r="J891" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
@@ -43720,6 +43810,11 @@
       </c>
       <c r="I909">
         <v>0.9157627086920875</v>
+      </c>
+      <c r="J909" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
       </c>
     </row>
     <row r="910">
@@ -44343,6 +44438,11 @@
       <c r="I922">
         <v>0.9247912572472935</v>
       </c>
+      <c r="J922" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
@@ -46533,6 +46633,11 @@
       <c r="I968">
         <v>0.9103958162354863</v>
       </c>
+      <c r="J968" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
@@ -48014,6 +48119,11 @@
       </c>
       <c r="I999">
         <v>0.9357366129923662</v>
+      </c>
+      <c r="J999" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
       </c>
     </row>
     <row r="1000">
@@ -49312,6 +49422,11 @@
       <c r="I1026">
         <v>0.8975744790733733</v>
       </c>
+      <c r="J1026" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="1027">
       <c r="A1027" t="inlineStr">
@@ -51841,6 +51956,11 @@
       <c r="I1079">
         <v>0.08323214702095257</v>
       </c>
+      <c r="J1079" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="1080">
       <c r="A1080" t="inlineStr">
@@ -53857,6 +53977,11 @@
       <c r="I1121">
         <v>0.9160851926799962</v>
       </c>
+      <c r="J1121" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="1122">
       <c r="A1122" t="inlineStr">
@@ -56928,6 +57053,11 @@
       <c r="I1185">
         <v>0.9075954216524207</v>
       </c>
+      <c r="J1185" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="1186">
       <c r="A1186" t="inlineStr">
@@ -58066,6 +58196,11 @@
       <c r="I1209">
         <v>0.8947087374315508</v>
       </c>
+      <c r="J1209" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
@@ -58301,6 +58436,11 @@
       <c r="I1214">
         <v>0.9046444417650622</v>
       </c>
+      <c r="J1214" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="1215">
       <c r="A1215" t="inlineStr">
@@ -58776,6 +58916,11 @@
       </c>
       <c r="I1224">
         <v>0.3749325399697678</v>
+      </c>
+      <c r="J1224" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
       </c>
     </row>
     <row r="1225">
@@ -60019,6 +60164,11 @@
       <c r="I1250">
         <v>0.9072411767060996</v>
       </c>
+      <c r="J1250" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="1251">
       <c r="A1251" t="inlineStr">
@@ -62350,6 +62500,11 @@
       <c r="I1299">
         <v>0.9032635525067368</v>
       </c>
+      <c r="J1299" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="1300">
       <c r="A1300" t="inlineStr">
@@ -63977,6 +64132,11 @@
       <c r="I1333">
         <v>0.89544367946579</v>
       </c>
+      <c r="J1333" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="1334">
       <c r="A1334" t="inlineStr">
@@ -65081,6 +65241,11 @@
       <c r="I1356">
         <v>0.9105777373102296</v>
       </c>
+      <c r="J1356" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
     </row>
     <row r="1357">
       <c r="A1357" t="inlineStr">
@@ -66507,6 +66672,11 @@
       </c>
       <c r="I1386">
         <v>0.9349350574266413</v>
+      </c>
+      <c r="J1386" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de políticas relacionadas a questões que versam sobre o desenvolvimento de pesquisa e cooperação científica, assuntos relacionados a internet, rádio e TV e desenvolvimento de novas tecnologias.</t>
+        </is>
       </c>
     </row>
     <row r="1387">

--- a/ementas_todas_cand-2-bd2.xlsx
+++ b/ementas_todas_cand-2-bd2.xlsx
@@ -741,7 +741,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -1125,6 +1125,11 @@
       <c r="I16">
         <v>0.7358696821185295</v>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1170,7 +1175,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1223,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -1315,7 +1320,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1368,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1464,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1610,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1754,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -1798,7 +1803,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -1894,7 +1899,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2043,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -2182,7 +2187,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2284,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -2523,7 +2528,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2624,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2768,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2817,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -2858,6 +2863,11 @@
       <c r="I52">
         <v>0.3193637651574255</v>
       </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2951,7 +2961,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -2999,7 +3009,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3057,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -3339,7 +3349,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -3583,6 +3593,11 @@
       <c r="I67">
         <v>0.8712245454552092</v>
       </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3628,7 +3643,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -3772,7 +3787,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -3818,6 +3833,11 @@
       <c r="I72">
         <v>0.5793638724359609</v>
       </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3912,7 +3932,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -4057,7 +4077,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -4105,7 +4125,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -4151,6 +4171,11 @@
       <c r="I79">
         <v>0.8436750750594867</v>
       </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4194,6 +4219,11 @@
       <c r="I80">
         <v>0.5867734953331164</v>
       </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4239,7 +4269,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4365,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4414,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -4624,7 +4654,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -4768,7 +4798,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -4912,7 +4942,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -4960,7 +4990,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -5105,7 +5135,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -5151,6 +5181,11 @@
       <c r="I100">
         <v>0.8771502503319287</v>
       </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5196,7 +5231,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5665,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -5676,6 +5711,11 @@
       <c r="I111">
         <v>0.803833941937799</v>
       </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5721,7 +5761,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5858,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -5963,7 +6003,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -6060,7 +6100,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -6108,7 +6148,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -6204,7 +6244,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -6348,7 +6388,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -6492,7 +6532,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6676,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -6685,7 +6725,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -6781,7 +6821,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -6925,7 +6965,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -7021,7 +7061,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -7069,7 +7109,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -7117,7 +7157,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -7213,7 +7253,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -7259,6 +7299,11 @@
       <c r="I144">
         <v>0.5926858931358534</v>
       </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>O conteúdo de tema trata de criação de feriados, datas comemorativas, nomeação de ruas, avenidas e espaços públicos.</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7446,6 +7491,11 @@
       <c r="I148">
         <v>0.8864009183789512</v>
       </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7588,7 +7638,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -7732,7 +7782,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7830,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -7877,6 +7927,11 @@
       <c r="I157">
         <v>0.9504205099089481</v>
       </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7970,7 +8025,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -8016,6 +8071,11 @@
       <c r="I160">
         <v>0.6772694658801446</v>
       </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8254,7 +8314,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -8350,7 +8410,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -8494,7 +8554,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -8542,7 +8602,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -8588,6 +8648,11 @@
       <c r="I172">
         <v>0.8443032640323951</v>
       </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -8682,7 +8747,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -8728,6 +8793,11 @@
       <c r="I175">
         <v>0.2134652059290347</v>
       </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -8821,7 +8891,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -8917,7 +8987,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -9061,7 +9131,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -9155,6 +9225,11 @@
       <c r="I184">
         <v>0.6694706868653615</v>
       </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9248,7 +9323,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -9294,6 +9369,11 @@
       <c r="I187">
         <v>0.5324953151190656</v>
       </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9387,7 +9467,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -9484,7 +9564,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -9676,7 +9756,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -9772,7 +9852,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -9820,7 +9900,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -9964,7 +10044,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -10010,6 +10090,11 @@
       <c r="I202">
         <v>0.7831488401731925</v>
       </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10055,7 +10140,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -10346,7 +10431,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -10584,6 +10669,11 @@
       <c r="I214">
         <v>0.8530637387028752</v>
       </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -10678,7 +10768,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -10726,7 +10816,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -10774,7 +10864,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -10918,7 +11008,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -11062,7 +11152,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -11206,7 +11296,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -11302,7 +11392,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -11398,7 +11488,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -11494,7 +11584,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -11542,7 +11632,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -11638,7 +11728,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -11929,7 +12019,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -11978,7 +12068,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -12122,7 +12212,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -12266,7 +12356,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -12311,6 +12401,11 @@
       </c>
       <c r="I250">
         <v>0.5389158258072058</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
       </c>
     </row>
     <row r="251">
@@ -12359,7 +12454,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -12503,7 +12598,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -12600,7 +12695,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -12648,7 +12743,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12840,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -12839,6 +12934,11 @@
       <c r="I261">
         <v>0.715346346791813</v>
       </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -12885,7 +12985,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -12933,7 +13033,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -12981,7 +13081,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -13173,7 +13273,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -13269,7 +13369,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -13315,6 +13415,11 @@
       <c r="I271">
         <v>0.4661964124025404</v>
       </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -13360,7 +13465,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -13409,7 +13514,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -13553,7 +13658,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -13697,7 +13802,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -13841,7 +13946,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -14040,6 +14145,11 @@
       <c r="I286">
         <v>0.9526136529286006</v>
       </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -14085,7 +14195,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -14229,7 +14339,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -14325,7 +14435,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -14469,7 +14579,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -14515,6 +14625,11 @@
       <c r="I296">
         <v>0.8860261473944978</v>
       </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -14561,7 +14676,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -14895,6 +15010,11 @@
       <c r="I304">
         <v>0.6343447172352642</v>
       </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -15034,6 +15154,11 @@
       <c r="I307">
         <v>0.8311131818867059</v>
       </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -15127,7 +15252,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -15225,7 +15350,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -15274,7 +15399,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -15370,7 +15495,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -15466,7 +15591,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -15562,7 +15687,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -15608,6 +15733,11 @@
       <c r="I319">
         <v>0.8717779739912709</v>
       </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -15749,7 +15879,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -15797,7 +15927,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -15941,7 +16071,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -16179,6 +16309,11 @@
       <c r="I331">
         <v>0.7591863039359986</v>
       </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -16224,7 +16359,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -16368,7 +16503,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -16465,7 +16600,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -16514,7 +16649,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -16752,6 +16887,11 @@
       <c r="I343">
         <v>0.5037374484432264</v>
       </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -16797,7 +16937,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -16942,7 +17082,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -16990,7 +17130,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -17086,7 +17226,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -17180,6 +17320,11 @@
       <c r="I352">
         <v>0.5832026530028706</v>
       </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -17225,7 +17370,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -17370,7 +17515,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -17514,7 +17659,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -17802,7 +17947,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -17948,7 +18093,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -18092,7 +18237,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -18236,7 +18381,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -18330,6 +18475,11 @@
       <c r="I376">
         <v>0.6033796190316695</v>
       </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -18469,6 +18619,11 @@
       <c r="I379">
         <v>0.5464078955648772</v>
       </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -18514,7 +18669,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -18752,6 +18907,11 @@
       <c r="I385">
         <v>0.889430922139832</v>
       </c>
+      <c r="J385" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -18797,7 +18957,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -19035,6 +19195,11 @@
       <c r="I391">
         <v>0.5855380719745852</v>
       </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -19129,7 +19294,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -19273,7 +19438,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -19369,7 +19534,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -19513,7 +19678,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -19609,7 +19774,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -19801,7 +19966,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -19850,7 +20015,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -19895,6 +20060,11 @@
       </c>
       <c r="I409">
         <v>0.765949237683245</v>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
       </c>
     </row>
     <row r="410">
@@ -20140,7 +20310,7 @@
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -20188,7 +20358,7 @@
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -20330,6 +20500,11 @@
       <c r="I418">
         <v>0.8830375331752923</v>
       </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -20471,7 +20646,7 @@
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -20519,7 +20694,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -20613,6 +20788,11 @@
       <c r="I424">
         <v>0.45171517435116</v>
       </c>
+      <c r="J424" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -20706,7 +20886,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -20802,7 +20982,7 @@
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -20946,7 +21126,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -21040,6 +21220,11 @@
       <c r="I433">
         <v>0.839973102041255</v>
       </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -21085,7 +21270,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -21325,7 +21510,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -21373,7 +21558,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -21565,7 +21750,7 @@
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -21611,6 +21796,11 @@
       <c r="I445">
         <v>0.5467304397872711</v>
       </c>
+      <c r="J445" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -21656,7 +21846,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -21800,7 +21990,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -21944,7 +22134,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -21992,7 +22182,7 @@
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -22184,7 +22374,7 @@
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -22280,7 +22470,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -22376,7 +22566,7 @@
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -22425,7 +22615,7 @@
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -22713,7 +22903,7 @@
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -22809,7 +22999,7 @@
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -22857,7 +23047,7 @@
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -22954,7 +23144,7 @@
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -23048,6 +23238,11 @@
       <c r="I475">
         <v>0.8365805531740208</v>
       </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -23093,7 +23288,7 @@
       </c>
       <c r="J476" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -23189,7 +23384,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -23237,7 +23432,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -23381,7 +23576,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -23525,7 +23720,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -23621,7 +23816,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -23669,7 +23864,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -23815,7 +24010,7 @@
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -23863,7 +24058,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -24053,6 +24248,11 @@
       <c r="I496">
         <v>0.6127545444399113</v>
       </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>O conteúdo de tema trata de criação de feriados, datas comemorativas, nomeação de ruas, avenidas e espaços públicos.</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -24098,7 +24298,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -24147,7 +24347,7 @@
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -24243,7 +24443,7 @@
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -24289,6 +24489,11 @@
       <c r="I501">
         <v>0.7272078199543418</v>
       </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -24479,7 +24684,7 @@
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -24527,7 +24732,7 @@
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -24621,6 +24826,11 @@
       <c r="I508">
         <v>0.4875128759386353</v>
       </c>
+      <c r="J508" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -24666,7 +24876,7 @@
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -24858,7 +25068,7 @@
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -24906,7 +25116,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -24954,7 +25164,7 @@
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -25047,6 +25257,11 @@
       </c>
       <c r="I517">
         <v>0.6763061008265517</v>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
       </c>
     </row>
     <row r="518">
@@ -25144,7 +25359,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -25288,7 +25503,7 @@
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -25384,7 +25599,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -25577,7 +25792,7 @@
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -25673,7 +25888,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -25865,7 +26080,7 @@
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -25911,6 +26126,11 @@
       <c r="I535">
         <v>0.4832008177773172</v>
       </c>
+      <c r="J535" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -26100,7 +26320,7 @@
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -26338,6 +26558,11 @@
       <c r="I544">
         <v>0.8297139690095783</v>
       </c>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -26383,7 +26608,7 @@
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -26631,6 +26856,11 @@
       <c r="I550">
         <v>0.3105848557421303</v>
       </c>
+      <c r="J550" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -26820,7 +27050,7 @@
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -26916,7 +27146,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -27010,6 +27240,11 @@
       <c r="I558">
         <v>0.7233553772222644</v>
       </c>
+      <c r="J558" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -27053,6 +27288,11 @@
       <c r="I559">
         <v>0.5697518658275349</v>
       </c>
+      <c r="J559" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -27098,7 +27338,7 @@
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -27242,7 +27482,7 @@
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -27290,7 +27530,7 @@
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -27435,7 +27675,7 @@
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -27579,7 +27819,7 @@
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -27726,7 +27966,7 @@
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -27966,7 +28206,7 @@
       </c>
       <c r="J578" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -28110,7 +28350,7 @@
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -28160,7 +28400,7 @@
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -28352,7 +28592,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -28400,7 +28640,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -28592,7 +28832,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -28638,6 +28878,11 @@
       <c r="I592">
         <v>0.8088596192919635</v>
       </c>
+      <c r="J592" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -28683,7 +28928,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -28731,7 +28976,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -28921,6 +29166,11 @@
       <c r="I598">
         <v>0.6826981575499487</v>
       </c>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -29110,7 +29360,7 @@
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -29398,7 +29648,7 @@
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -29590,7 +29840,7 @@
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -29638,7 +29888,7 @@
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -29686,7 +29936,7 @@
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -29734,7 +29984,7 @@
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -29878,7 +30128,7 @@
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -30068,6 +30318,11 @@
       <c r="I622">
         <v>0.6293989294698659</v>
       </c>
+      <c r="J622" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -30162,7 +30417,7 @@
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -30307,7 +30562,7 @@
       </c>
       <c r="J627" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -30404,7 +30659,7 @@
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -30548,7 +30803,7 @@
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -30740,7 +30995,7 @@
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -30980,7 +31235,7 @@
       </c>
       <c r="J641" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -31028,7 +31283,7 @@
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -31124,7 +31379,7 @@
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -31172,7 +31427,7 @@
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -31268,7 +31523,7 @@
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -31365,7 +31620,7 @@
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -31413,7 +31668,7 @@
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -31512,6 +31767,11 @@
       <c r="I652">
         <v>0.9518280428190027</v>
       </c>
+      <c r="J652" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -31558,7 +31818,7 @@
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -31708,7 +31968,7 @@
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -31853,7 +32113,7 @@
       </c>
       <c r="J659" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -31998,7 +32258,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -32142,7 +32402,7 @@
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -32192,7 +32452,7 @@
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -32288,7 +32548,7 @@
       </c>
       <c r="J668" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -32337,7 +32597,7 @@
       </c>
       <c r="J669" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -32433,7 +32693,7 @@
       </c>
       <c r="J671" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -32577,7 +32837,7 @@
       </c>
       <c r="J674" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -32721,7 +32981,7 @@
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -32770,7 +33030,7 @@
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -32914,7 +33174,7 @@
       </c>
       <c r="J681" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -33010,7 +33270,7 @@
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -33058,7 +33318,7 @@
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -33202,7 +33462,7 @@
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -33299,7 +33559,7 @@
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -33348,7 +33608,7 @@
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -33492,7 +33752,7 @@
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -33588,7 +33848,7 @@
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -33682,6 +33942,11 @@
       <c r="I697">
         <v>0.8113084289964034</v>
       </c>
+      <c r="J697" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
@@ -33727,7 +33992,7 @@
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -33871,7 +34136,7 @@
       </c>
       <c r="J701" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -33919,7 +34184,7 @@
       </c>
       <c r="J702" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -34015,7 +34280,7 @@
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -34063,7 +34328,7 @@
       </c>
       <c r="J705" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -34159,7 +34424,7 @@
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -34253,6 +34518,11 @@
       <c r="I709">
         <v>0.8188330572420545</v>
       </c>
+      <c r="J709" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
@@ -34298,7 +34568,7 @@
       </c>
       <c r="J710" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -34636,7 +34906,7 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -34732,7 +35002,7 @@
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -34781,7 +35051,7 @@
       </c>
       <c r="J720" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -34877,7 +35147,7 @@
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -34925,7 +35195,7 @@
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -35021,7 +35291,7 @@
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -35211,6 +35481,11 @@
       <c r="I729">
         <v>0.7303673428347112</v>
       </c>
+      <c r="J729" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
@@ -35257,7 +35532,7 @@
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -35546,7 +35821,7 @@
       </c>
       <c r="J736" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -35594,7 +35869,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -35786,7 +36061,7 @@
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -35834,7 +36109,7 @@
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -35882,7 +36157,7 @@
       </c>
       <c r="J743" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -35930,6 +36205,11 @@
       <c r="I744">
         <v>0.5906276672409229</v>
       </c>
+      <c r="J744" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
@@ -36023,7 +36303,7 @@
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -36071,7 +36351,7 @@
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -36167,7 +36447,7 @@
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -36311,7 +36591,7 @@
       </c>
       <c r="J752" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -36405,6 +36685,11 @@
       <c r="I754">
         <v>0.3308260754898463</v>
       </c>
+      <c r="J754" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
@@ -36450,7 +36735,7 @@
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -36595,7 +36880,7 @@
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -36643,7 +36928,7 @@
       </c>
       <c r="J759" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -36787,7 +37072,7 @@
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -36836,7 +37121,7 @@
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -36884,7 +37169,7 @@
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -36932,7 +37217,7 @@
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -36978,6 +37263,11 @@
       <c r="I766">
         <v>0.8114793831628496</v>
       </c>
+      <c r="J766" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
@@ -37071,7 +37361,7 @@
       </c>
       <c r="J768" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -37117,6 +37407,11 @@
       <c r="I769">
         <v>0.6988883657201994</v>
       </c>
+      <c r="J769" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
@@ -37210,7 +37505,7 @@
       </c>
       <c r="J771" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -37352,6 +37647,11 @@
       <c r="I774">
         <v>0.565142725758823</v>
       </c>
+      <c r="J774" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
@@ -37445,7 +37745,7 @@
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -37589,7 +37889,7 @@
       </c>
       <c r="J779" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -37731,6 +38031,11 @@
       <c r="I782">
         <v>0.569230616763282</v>
       </c>
+      <c r="J782" t="inlineStr">
+        <is>
+          <t>O conteúdo de tema trata de criação de feriados, datas comemorativas, nomeação de ruas, avenidas e espaços públicos.</t>
+        </is>
+      </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
@@ -37872,7 +38177,7 @@
       </c>
       <c r="J785" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -37968,7 +38273,7 @@
       </c>
       <c r="J787" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -38016,7 +38321,7 @@
       </c>
       <c r="J788" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -38163,7 +38468,7 @@
       </c>
       <c r="J791" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -38307,7 +38612,7 @@
       </c>
       <c r="J794" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -38452,7 +38757,7 @@
       </c>
       <c r="J797" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -38500,7 +38805,7 @@
       </c>
       <c r="J798" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -38546,6 +38851,11 @@
       <c r="I799">
         <v>0.5475526477670134</v>
       </c>
+      <c r="J799" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
@@ -38592,7 +38902,7 @@
       </c>
       <c r="J800" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -38784,7 +39094,7 @@
       </c>
       <c r="J804" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -38830,6 +39140,11 @@
       <c r="I805">
         <v>0.585846434562714</v>
       </c>
+      <c r="J805" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
@@ -38923,7 +39238,7 @@
       </c>
       <c r="J807" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -38971,7 +39286,7 @@
       </c>
       <c r="J808" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -39019,7 +39334,7 @@
       </c>
       <c r="J809" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -39067,7 +39382,7 @@
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -39165,7 +39480,7 @@
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -39309,7 +39624,7 @@
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -39407,7 +39722,7 @@
       </c>
       <c r="J817" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -39455,7 +39770,7 @@
       </c>
       <c r="J818" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -39504,7 +39819,7 @@
       </c>
       <c r="J819" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -39600,7 +39915,7 @@
       </c>
       <c r="J821" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -39744,7 +40059,7 @@
       </c>
       <c r="J824" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -39889,7 +40204,7 @@
       </c>
       <c r="J827" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -40081,7 +40396,7 @@
       </c>
       <c r="J831" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -40177,7 +40492,7 @@
       </c>
       <c r="J833" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -40225,7 +40540,7 @@
       </c>
       <c r="J834" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -40609,7 +40924,7 @@
       </c>
       <c r="J842" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -40801,6 +41116,11 @@
       <c r="I846">
         <v>0.735466996172738</v>
       </c>
+      <c r="J846" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
@@ -40846,7 +41166,7 @@
       </c>
       <c r="J847" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -40894,7 +41214,7 @@
       </c>
       <c r="J848" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -40942,7 +41262,7 @@
       </c>
       <c r="J849" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -41086,7 +41406,7 @@
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -41182,7 +41502,7 @@
       </c>
       <c r="J854" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -41376,7 +41696,7 @@
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -41472,7 +41792,7 @@
       </c>
       <c r="J860" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -41664,7 +41984,7 @@
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -41760,7 +42080,7 @@
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -41856,7 +42176,7 @@
       </c>
       <c r="J868" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -42048,7 +42368,7 @@
       </c>
       <c r="J872" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -42240,7 +42560,7 @@
       </c>
       <c r="J876" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -42286,6 +42606,11 @@
       <c r="I877">
         <v>0.416318708140263</v>
       </c>
+      <c r="J877" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
@@ -42331,7 +42656,7 @@
       </c>
       <c r="J878" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -42428,7 +42753,7 @@
       </c>
       <c r="J880" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -42476,7 +42801,7 @@
       </c>
       <c r="J881" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -42522,6 +42847,11 @@
       <c r="I882">
         <v>0.4599683111490511</v>
       </c>
+      <c r="J882" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
@@ -42615,7 +42945,7 @@
       </c>
       <c r="J884" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -42711,7 +43041,7 @@
       </c>
       <c r="J886" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -42760,7 +43090,7 @@
       </c>
       <c r="J887" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -42856,7 +43186,7 @@
       </c>
       <c r="J889" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -43097,7 +43427,7 @@
       </c>
       <c r="J894" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -43193,7 +43523,7 @@
       </c>
       <c r="J896" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -43242,7 +43572,7 @@
       </c>
       <c r="J897" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -43530,7 +43860,7 @@
       </c>
       <c r="J903" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -43624,6 +43954,11 @@
       <c r="I905">
         <v>0.7590158798495418</v>
       </c>
+      <c r="J905" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
@@ -43765,7 +44100,7 @@
       </c>
       <c r="J908" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -43959,7 +44294,7 @@
       </c>
       <c r="J912" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -44055,7 +44390,7 @@
       </c>
       <c r="J914" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -44199,7 +44534,7 @@
       </c>
       <c r="J917" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -44296,7 +44631,7 @@
       </c>
       <c r="J919" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -44392,7 +44727,7 @@
       </c>
       <c r="J921" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -44489,7 +44824,7 @@
       </c>
       <c r="J923" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -44634,7 +44969,7 @@
       </c>
       <c r="J926" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -44728,6 +45063,11 @@
       <c r="I928">
         <v>0.5658305833242526</v>
       </c>
+      <c r="J928" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
@@ -44773,7 +45113,7 @@
       </c>
       <c r="J929" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -44917,6 +45257,11 @@
       <c r="I932">
         <v>0.69615529278427</v>
       </c>
+      <c r="J932" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
@@ -44962,7 +45307,7 @@
       </c>
       <c r="J933" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -45058,7 +45403,7 @@
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -45250,7 +45595,7 @@
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -45298,7 +45643,7 @@
       </c>
       <c r="J940" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -45440,6 +45785,11 @@
       <c r="I943">
         <v>0.7262297403554658</v>
       </c>
+      <c r="J943" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
@@ -45485,7 +45835,7 @@
       </c>
       <c r="J944" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -45629,7 +45979,7 @@
       </c>
       <c r="J947" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -45920,7 +46270,7 @@
       </c>
       <c r="J953" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -45968,7 +46318,7 @@
       </c>
       <c r="J954" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -46064,7 +46414,7 @@
       </c>
       <c r="J956" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -46302,6 +46652,11 @@
       <c r="I961">
         <v>0.5823453522732818</v>
       </c>
+      <c r="J961" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
@@ -46347,7 +46702,7 @@
       </c>
       <c r="J962" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -46491,7 +46846,7 @@
       </c>
       <c r="J965" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -46587,7 +46942,7 @@
       </c>
       <c r="J967" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -46684,7 +47039,7 @@
       </c>
       <c r="J969" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -46780,7 +47135,7 @@
       </c>
       <c r="J971" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -46922,6 +47277,11 @@
       <c r="I974">
         <v>0.8648228456650188</v>
       </c>
+      <c r="J974" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
@@ -47015,7 +47375,7 @@
       </c>
       <c r="J976" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -47111,7 +47471,7 @@
       </c>
       <c r="J978" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -47207,7 +47567,7 @@
       </c>
       <c r="J980" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -47255,7 +47615,7 @@
       </c>
       <c r="J981" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -47400,7 +47760,7 @@
       </c>
       <c r="J984" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -47545,7 +47905,7 @@
       </c>
       <c r="J987" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -47785,7 +48145,7 @@
       </c>
       <c r="J992" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -47834,7 +48194,7 @@
       </c>
       <c r="J993" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -47930,7 +48290,7 @@
       </c>
       <c r="J995" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -48074,7 +48434,7 @@
       </c>
       <c r="J998" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -48170,7 +48530,7 @@
       </c>
       <c r="J1000" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -48266,7 +48626,7 @@
       </c>
       <c r="J1002" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -48410,7 +48770,7 @@
       </c>
       <c r="J1005" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -48504,6 +48864,11 @@
       <c r="I1007">
         <v>0.87498000284041</v>
       </c>
+      <c r="J1007" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" t="inlineStr">
@@ -48549,7 +48914,7 @@
       </c>
       <c r="J1008" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -48745,6 +49110,11 @@
       <c r="I1012">
         <v>0.1725681829733895</v>
       </c>
+      <c r="J1012" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="1013">
       <c r="A1013" t="inlineStr">
@@ -48936,7 +49306,7 @@
       </c>
       <c r="J1016" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -48984,7 +49354,7 @@
       </c>
       <c r="J1017" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -49081,7 +49451,7 @@
       </c>
       <c r="J1019" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -49231,7 +49601,7 @@
       </c>
       <c r="J1022" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -49280,7 +49650,7 @@
       </c>
       <c r="J1023" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -49376,7 +49746,7 @@
       </c>
       <c r="J1025" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -49617,7 +49987,7 @@
       </c>
       <c r="J1030" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -49665,7 +50035,7 @@
       </c>
       <c r="J1031" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -49713,7 +50083,7 @@
       </c>
       <c r="J1032" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -49759,6 +50129,11 @@
       <c r="I1033">
         <v>0.637582165555459</v>
       </c>
+      <c r="J1033" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="1034">
       <c r="A1034" t="inlineStr">
@@ -49804,7 +50179,7 @@
       </c>
       <c r="J1034" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -49901,7 +50276,7 @@
       </c>
       <c r="J1036" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -49949,7 +50324,7 @@
       </c>
       <c r="J1037" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -50093,7 +50468,7 @@
       </c>
       <c r="J1040" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -50237,7 +50612,7 @@
       </c>
       <c r="J1043" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -50429,7 +50804,7 @@
       </c>
       <c r="J1047" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -50573,7 +50948,7 @@
       </c>
       <c r="J1050" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -50621,7 +50996,7 @@
       </c>
       <c r="J1051" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -50669,7 +51044,7 @@
       </c>
       <c r="J1052" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -50717,7 +51092,7 @@
       </c>
       <c r="J1053" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -50811,6 +51186,11 @@
       <c r="I1055">
         <v>0.856147549475665</v>
       </c>
+      <c r="J1055" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="1056">
       <c r="A1056" t="inlineStr">
@@ -50952,7 +51332,7 @@
       </c>
       <c r="J1058" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -51046,6 +51426,11 @@
       <c r="I1060">
         <v>0.221985010601723</v>
       </c>
+      <c r="J1060" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="1061">
       <c r="A1061" t="inlineStr">
@@ -51091,7 +51476,7 @@
       </c>
       <c r="J1061" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -51235,7 +51620,7 @@
       </c>
       <c r="J1064" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -51381,7 +51766,7 @@
       </c>
       <c r="J1067" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -51429,7 +51814,7 @@
       </c>
       <c r="J1068" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -51525,7 +51910,7 @@
       </c>
       <c r="J1070" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -51573,7 +51958,7 @@
       </c>
       <c r="J1071" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -51766,7 +52151,7 @@
       </c>
       <c r="J1075" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -51814,7 +52199,7 @@
       </c>
       <c r="J1076" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -51862,7 +52247,7 @@
       </c>
       <c r="J1077" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -52006,7 +52391,7 @@
       </c>
       <c r="J1080" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -52390,7 +52775,7 @@
       </c>
       <c r="J1088" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -52438,7 +52823,7 @@
       </c>
       <c r="J1089" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -52534,7 +52919,7 @@
       </c>
       <c r="J1091" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -52872,7 +53257,7 @@
       </c>
       <c r="J1098" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -53112,7 +53497,7 @@
       </c>
       <c r="J1103" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -53256,7 +53641,7 @@
       </c>
       <c r="J1106" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -53401,7 +53786,7 @@
       </c>
       <c r="J1109" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -53450,7 +53835,7 @@
       </c>
       <c r="J1110" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -53595,7 +53980,7 @@
       </c>
       <c r="J1113" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -53691,7 +54076,7 @@
       </c>
       <c r="J1115" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -54028,7 +54413,7 @@
       </c>
       <c r="J1122" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -54416,7 +54801,7 @@
       </c>
       <c r="J1130" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -54513,7 +54898,7 @@
       </c>
       <c r="J1132" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -54561,7 +54946,7 @@
       </c>
       <c r="J1133" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -54705,7 +55090,7 @@
       </c>
       <c r="J1136" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -54849,7 +55234,7 @@
       </c>
       <c r="J1139" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -54898,7 +55283,7 @@
       </c>
       <c r="J1140" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -54995,7 +55380,7 @@
       </c>
       <c r="J1142" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -55427,7 +55812,7 @@
       </c>
       <c r="J1151" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -55621,7 +56006,7 @@
       </c>
       <c r="J1155" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -55669,7 +56054,7 @@
       </c>
       <c r="J1156" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -55718,7 +56103,7 @@
       </c>
       <c r="J1157" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -55862,7 +56247,7 @@
       </c>
       <c r="J1160" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -56006,7 +56391,7 @@
       </c>
       <c r="J1163" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -56054,7 +56439,7 @@
       </c>
       <c r="J1164" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -56198,7 +56583,7 @@
       </c>
       <c r="J1167" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -56244,6 +56629,11 @@
       <c r="I1168">
         <v>0.8281553502373263</v>
       </c>
+      <c r="J1168" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
@@ -56289,7 +56679,7 @@
       </c>
       <c r="J1169" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -56434,7 +56824,7 @@
       </c>
       <c r="J1172" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -56674,6 +57064,11 @@
       <c r="I1177">
         <v>0.854131628266895</v>
       </c>
+      <c r="J1177" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" t="inlineStr">
@@ -56719,7 +57114,7 @@
       </c>
       <c r="J1178" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -56863,7 +57258,7 @@
       </c>
       <c r="J1181" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -56911,7 +57306,7 @@
       </c>
       <c r="J1182" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -57007,7 +57402,7 @@
       </c>
       <c r="J1184" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -57152,7 +57547,7 @@
       </c>
       <c r="J1187" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -57296,7 +57691,7 @@
       </c>
       <c r="J1190" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -57440,7 +57835,7 @@
       </c>
       <c r="J1193" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -57488,7 +57883,7 @@
       </c>
       <c r="J1194" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -57584,7 +57979,7 @@
       </c>
       <c r="J1196" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -57678,6 +58073,11 @@
       <c r="I1198">
         <v>0.6009121178716331</v>
       </c>
+      <c r="J1198" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="1199">
       <c r="A1199" t="inlineStr">
@@ -57723,7 +58123,7 @@
       </c>
       <c r="J1199" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -57771,7 +58171,7 @@
       </c>
       <c r="J1200" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -57867,7 +58267,7 @@
       </c>
       <c r="J1202" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -57913,6 +58313,11 @@
       <c r="I1203">
         <v>0.4880783749198787</v>
       </c>
+      <c r="J1203" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
@@ -58006,7 +58411,7 @@
       </c>
       <c r="J1205" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -58054,7 +58459,7 @@
       </c>
       <c r="J1206" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -58150,7 +58555,7 @@
       </c>
       <c r="J1208" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -58246,7 +58651,7 @@
       </c>
       <c r="J1210" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -58294,7 +58699,7 @@
       </c>
       <c r="J1211" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -58487,7 +58892,7 @@
       </c>
       <c r="J1215" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -58535,7 +58940,7 @@
       </c>
       <c r="J1216" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -58583,7 +58988,7 @@
       </c>
       <c r="J1217" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -58727,7 +59132,7 @@
       </c>
       <c r="J1220" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -58823,7 +59228,7 @@
       </c>
       <c r="J1222" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -58871,7 +59276,7 @@
       </c>
       <c r="J1223" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -58965,6 +59370,11 @@
       <c r="I1225">
         <v>0.4268341569730879</v>
       </c>
+      <c r="J1225" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="1226">
       <c r="A1226" t="inlineStr">
@@ -59058,7 +59468,7 @@
       </c>
       <c r="J1227" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -59152,6 +59562,11 @@
       <c r="I1229">
         <v>0.6813357730504395</v>
       </c>
+      <c r="J1229" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="1230">
       <c r="A1230" t="inlineStr">
@@ -59197,7 +59612,7 @@
       </c>
       <c r="J1230" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -59396,7 +59811,7 @@
       </c>
       <c r="J1234" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -59444,7 +59859,7 @@
       </c>
       <c r="J1235" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -59639,7 +60054,7 @@
       </c>
       <c r="J1239" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -59735,7 +60150,7 @@
       </c>
       <c r="J1241" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -59881,7 +60296,7 @@
       </c>
       <c r="J1244" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -60025,7 +60440,7 @@
       </c>
       <c r="J1247" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -60121,6 +60536,11 @@
       <c r="I1249">
         <v>0.6661761495995779</v>
       </c>
+      <c r="J1249" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="1250">
       <c r="A1250" t="inlineStr">
@@ -60358,7 +60778,7 @@
       </c>
       <c r="J1254" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -60454,7 +60874,7 @@
       </c>
       <c r="J1256" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -60598,7 +61018,7 @@
       </c>
       <c r="J1259" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -60646,7 +61066,7 @@
       </c>
       <c r="J1260" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -60742,7 +61162,7 @@
       </c>
       <c r="J1262" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -60790,7 +61210,7 @@
       </c>
       <c r="J1263" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -60886,7 +61306,7 @@
       </c>
       <c r="J1265" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -60935,7 +61355,7 @@
       </c>
       <c r="J1266" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -61031,7 +61451,7 @@
       </c>
       <c r="J1268" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -61080,7 +61500,7 @@
       </c>
       <c r="J1269" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -61126,6 +61546,11 @@
       <c r="I1270">
         <v>0.8518155805326932</v>
       </c>
+      <c r="J1270" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="1271">
       <c r="A1271" t="inlineStr">
@@ -61217,6 +61642,11 @@
       <c r="I1272">
         <v>0.8592278597628463</v>
       </c>
+      <c r="J1272" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="1273">
       <c r="A1273" t="inlineStr">
@@ -61263,7 +61693,7 @@
       </c>
       <c r="J1273" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -61311,7 +61741,7 @@
       </c>
       <c r="J1274" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -61364,7 +61794,7 @@
       </c>
       <c r="J1275" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -61460,7 +61890,7 @@
       </c>
       <c r="J1277" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -61508,7 +61938,7 @@
       </c>
       <c r="J1278" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -61605,7 +62035,7 @@
       </c>
       <c r="J1280" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -61747,6 +62177,11 @@
       <c r="I1283">
         <v>0.1886880748826099</v>
       </c>
+      <c r="J1283" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="1284">
       <c r="A1284" t="inlineStr">
@@ -61792,7 +62227,7 @@
       </c>
       <c r="J1284" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -61888,7 +62323,7 @@
       </c>
       <c r="J1286" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -62032,7 +62467,7 @@
       </c>
       <c r="J1289" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -62078,6 +62513,11 @@
       <c r="I1290">
         <v>0.6729896827486228</v>
       </c>
+      <c r="J1290" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="1291">
       <c r="A1291" t="inlineStr">
@@ -62121,6 +62561,11 @@
       <c r="I1291">
         <v>0.4870679252188602</v>
       </c>
+      <c r="J1291" t="inlineStr">
+        <is>
+          <t>O conteúdo de tema trata de criação de feriados, datas comemorativas, nomeação de ruas, avenidas e espaços públicos.</t>
+        </is>
+      </c>
     </row>
     <row r="1292">
       <c r="A1292" t="inlineStr">
@@ -62454,7 +62899,7 @@
       </c>
       <c r="J1298" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -62550,7 +62995,7 @@
       </c>
       <c r="J1300" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -62599,7 +63044,7 @@
       </c>
       <c r="J1301" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -62839,7 +63284,7 @@
       </c>
       <c r="J1306" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -62887,7 +63332,7 @@
       </c>
       <c r="J1307" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -63031,7 +63476,7 @@
       </c>
       <c r="J1310" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -63177,7 +63622,7 @@
       </c>
       <c r="J1313" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -63369,6 +63814,11 @@
       <c r="I1317">
         <v>0.6510584745504201</v>
       </c>
+      <c r="J1317" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="1318">
       <c r="A1318" t="inlineStr">
@@ -63462,7 +63912,7 @@
       </c>
       <c r="J1319" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -63798,7 +64248,7 @@
       </c>
       <c r="J1326" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -63942,7 +64392,7 @@
       </c>
       <c r="J1329" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -64038,7 +64488,7 @@
       </c>
       <c r="J1331" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -64183,7 +64633,7 @@
       </c>
       <c r="J1334" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -64327,7 +64777,7 @@
       </c>
       <c r="J1337" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -64471,7 +64921,7 @@
       </c>
       <c r="J1340" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -64616,7 +65066,7 @@
       </c>
       <c r="J1343" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -64760,7 +65210,7 @@
       </c>
       <c r="J1346" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -64953,7 +65403,7 @@
       </c>
       <c r="J1350" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -65049,7 +65499,7 @@
       </c>
       <c r="J1352" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -65195,7 +65645,7 @@
       </c>
       <c r="J1355" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -65385,6 +65835,11 @@
       <c r="I1359">
         <v>0.8403547508276469</v>
       </c>
+      <c r="J1359" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="1360">
       <c r="A1360" t="inlineStr">
@@ -65430,7 +65885,7 @@
       </c>
       <c r="J1360" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -65478,7 +65933,7 @@
       </c>
       <c r="J1361" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -65622,7 +66077,7 @@
       </c>
       <c r="J1364" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -65816,7 +66271,7 @@
       </c>
       <c r="J1368" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -65912,7 +66367,7 @@
       </c>
       <c r="J1370" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -66056,7 +66511,7 @@
       </c>
       <c r="J1373" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -66248,7 +66703,7 @@
       </c>
       <c r="J1377" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -66438,6 +66893,11 @@
       <c r="I1381">
         <v>0.6071616205711137</v>
       </c>
+      <c r="J1381" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
+      </c>
     </row>
     <row r="1382">
       <c r="A1382" t="inlineStr">
@@ -66531,7 +66991,7 @@
       </c>
       <c r="J1383" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -66627,7 +67087,7 @@
       </c>
       <c r="J1385" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -66819,7 +67279,7 @@
       </c>
       <c r="J1389" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -66915,7 +67375,7 @@
       </c>
       <c r="J1391" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -67203,7 +67663,7 @@
       </c>
       <c r="J1397" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -67252,7 +67712,7 @@
       </c>
       <c r="J1398" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -67444,7 +67904,7 @@
       </c>
       <c r="J1402" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações, homenagens e quaisquer outras atividades do cotidiano do Governo.</t>
+          <t>O conteúdo do tema trata da Administração do Estado brasileiro, relações entre os entes federados (União, Estados e Municípios), organização da burocracia e dos poderes Legislativo e Executivo, nomeações e quaisquer outras atividades do cotidiano do Governo.</t>
         </is>
       </c>
     </row>
@@ -67586,6 +68046,11 @@
       <c r="I1405">
         <v>0.5533909310048046</v>
       </c>
+      <c r="J1405" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema aborda assuntos relacionados ao combate à violência contra mulher e a proteção de sua  integridade moral, física e social. Bem como assuntos relacionados a crianças, adolescentes e o trato com idosos</t>
+        </is>
+      </c>
     </row>
     <row r="1406">
       <c r="A1406" t="inlineStr">
@@ -67679,7 +68144,7 @@
       </c>
       <c r="J1407" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -67724,6 +68189,11 @@
       </c>
       <c r="I1408">
         <v>0.009005293024678498</v>
+      </c>
+      <c r="J1408" t="inlineStr">
+        <is>
+          <t>O conteúdo do tema trata de assuntos tributários e questões fiscais, como impostos, reformas e incentivos tributários para empresas e indústrias.</t>
+        </is>
       </c>
     </row>
     <row r="1409">
@@ -68060,7 +68530,7 @@
       </c>
       <c r="J1415" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -68255,7 +68725,7 @@
       </c>
       <c r="J1419" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
@@ -68351,7 +68821,7 @@
       </c>
       <c r="J1421" t="inlineStr">
         <is>
-          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados à proteção de crianças, adolescentes e idosos.</t>
+          <t>O conteúdo do tema trata de reformulações nos códigos civis e penais, combate à corrupção, tráfico de drogas, crimes comuns e assuntos relacionados ao Poder Judiciário e ao funcionamento e organização desta instituição. Bem como o funcionamento e atuação do Ministério Público.</t>
         </is>
       </c>
     </row>
